--- a/requirements/Requirements Excel/Requirement Show Prediction.xlsx
+++ b/requirements/Requirements Excel/Requirement Show Prediction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E414-FBA8-491C-91BD-837639DE1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32C8F8-6055-46B1-A417-8C0C7E40D1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>Show Prediction</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Press button</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -694,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
